--- a/src/test/resources/TestData/OffersData.xlsx
+++ b/src/test/resources/TestData/OffersData.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadee\git\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF08C2-64F0-4C8D-8E7A-DC2B378FA4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AADE08B-BDCB-476C-A348-47CCE1D2A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="breadText" sheetId="1" r:id="rId1"/>
-    <sheet name="bannerText" sheetId="2" r:id="rId2"/>
-    <sheet name="bannerOneButton" sheetId="3" r:id="rId3"/>
-    <sheet name="bannerTwoButton" sheetId="5" r:id="rId4"/>
-    <sheet name="bannerThreeButton" sheetId="4" r:id="rId5"/>
-    <sheet name="bannerFourButton" sheetId="6" r:id="rId6"/>
-    <sheet name="bannerFiveButton" sheetId="7" r:id="rId7"/>
-    <sheet name="bannerSixButton" sheetId="8" r:id="rId8"/>
+    <sheet name="headText" sheetId="9" r:id="rId2"/>
+    <sheet name="cardContent" sheetId="10" r:id="rId3"/>
+    <sheet name="offerTerms" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>TestCase</t>
   </si>
@@ -52,79 +48,43 @@
     <t>Offers</t>
   </si>
   <si>
-    <t>Check if the banner one Button redirects to correct page</t>
-  </si>
-  <si>
     <t>expUrl</t>
   </si>
   <si>
-    <t>https://www.neostrata.com/collections/shop-all-skincare</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Check if the banner one is present</t>
-  </si>
-  <si>
-    <t>Check if the banner two is present</t>
-  </si>
-  <si>
-    <t>YHPhVK</t>
-  </si>
-  <si>
-    <t>KmEahY</t>
-  </si>
-  <si>
-    <t>GLOW NOW, PAY LATER</t>
-  </si>
-  <si>
-    <t>3 FREE SAMPLES</t>
-  </si>
-  <si>
-    <t>bJNW6W</t>
-  </si>
-  <si>
-    <t>FREE SHIPPING ON ALL ORDERS $75+</t>
-  </si>
-  <si>
-    <t>Check if the banner three is present</t>
-  </si>
-  <si>
-    <t>rVgYiQ</t>
-  </si>
-  <si>
-    <t>Check if the banner four is present</t>
-  </si>
-  <si>
-    <t>20% OFF YOUR FIRST PURCHASE</t>
-  </si>
-  <si>
-    <t>SUBSCRIBE AND SAVE</t>
-  </si>
-  <si>
-    <t>Check if the banner five is present</t>
-  </si>
-  <si>
-    <t>cyPMWH</t>
-  </si>
-  <si>
-    <t>Check if the banner two Button redirects to correct page</t>
-  </si>
-  <si>
-    <t>Check if the banner three Button redirects to correct page</t>
-  </si>
-  <si>
-    <t>Check if the banner four Button redirects to correct page</t>
-  </si>
-  <si>
-    <t>Check if the banner five Button redirects to correct page</t>
-  </si>
-  <si>
     <t>https://www.neostrata.com/collections/bestsellers</t>
   </si>
   <si>
-    <t>Check if the banner six Button redirects to correct page</t>
+    <t>Check if the Heading is present</t>
+  </si>
+  <si>
+    <t>Special Offers</t>
+  </si>
+  <si>
+    <t>uniqueId</t>
+  </si>
+  <si>
+    <t>Check if Let’s Text card is present</t>
+  </si>
+  <si>
+    <t>Check if 3 Free Samples card is present</t>
+  </si>
+  <si>
+    <t>Check if Free Shipping On Orders $75+ card is present</t>
+  </si>
+  <si>
+    <t>Check if 20% Off Your First Purchase card is present</t>
+  </si>
+  <si>
+    <t>Check if Glow Now, Pay Later card is present</t>
+  </si>
+  <si>
+    <t>Check if Subscribe &amp; Save card is present</t>
+  </si>
+  <si>
+    <t>Check if the Terms and Conditions text is present</t>
+  </si>
+  <si>
+    <t>Free Shipping On All Orders $75+</t>
   </si>
 </sst>
 </file>
@@ -191,14 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,7 +440,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -521,19 +478,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EB76F9-9267-4BEC-8C92-A40E8F91640F}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4BB270-D153-4C80-B3B3-710426A56D7E}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E49A66-C6DD-4AF4-98EA-3D30F27F5BE9}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -544,100 +543,122 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C3D48B67-98A1-4F99-AF5E-27BE96A8DB55}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6F3C3DC2-4BF5-42D9-9AFF-B6C9EE1EB043}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{CAD5D968-6C1C-43F3-90E0-4B1B03090FDE}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{A60C417A-5325-4951-9928-FDDC5E0C5B74}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{320480E1-71B0-4AAC-83DA-CB8E3F06D45B}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{39BC75B7-ACBA-45FC-AE4C-E05358E8CC2E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB36E80E-0AE2-4BFE-86AE-9604F058BDBF}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB761C59-05A7-4A34-9202-9E6FE859C029}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -648,236 +669,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{28BA785F-FEE3-494D-9A11-39895235A661}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CBD544-0516-4A28-924D-D20619893D19}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{08CBA9BA-772C-4E52-83DF-726EA658A175}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C545411-21B7-4B2F-BA61-975D6DAB1E23}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D7398574-1815-49FA-8ECF-607D72E9316B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6130D09-E71C-493D-B2DB-09A47E2AB64A}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="55.77734375" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{42186B11-7AA6-46FB-B180-F38E275F0D49}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCFB07E-0280-400D-86A0-D253579B1680}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399A338A-E35F-4156-ABE4-D939A3E77B25}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A72C2442-9F24-4A90-93C3-4E09311FCFB3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>